--- a/Requirements/Requirements & User Flow .xlsx
+++ b/Requirements/Requirements & User Flow .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A08341A-FED3-4440-8944-21209B253035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4203CF-CADE-4B79-8D7D-64ABD1F0A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trainee" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="552">
   <si>
     <t>User story ID</t>
   </si>
@@ -1714,6 +1714,15 @@
   </si>
   <si>
     <t>If possible bring ViewModels also</t>
+  </si>
+  <si>
+    <t>To clarify the Entity model with client(Rafi) and Project manager(Rafi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be prepared before entering to meeting </t>
+  </si>
+  <si>
+    <t>Identifing Entity model flaws</t>
   </si>
 </sst>
 </file>
@@ -9344,15 +9353,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2200275</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9378,7 +9387,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266950" y="7524750"/>
+          <a:off x="2809875" y="7629525"/>
           <a:ext cx="7267575" cy="6010275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26643,26 +26652,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468A2B05-CBB5-104B-2149-9B4B276F54D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E0E18C-23D7-C52D-B553-FF740A98FD39}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D5C09757-F11E-4F5B-B777-DEB4054A44C0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{468A2B05-CBB5-104B-2149-9B4B276F54D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26678,8 +26687,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14830425" y="85725"/>
-          <a:ext cx="13154025" cy="12849225"/>
+          <a:off x="14020800" y="3429000"/>
+          <a:ext cx="4533900" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44479A83-EAED-B4A6-3BF7-7A51BAAD1D1B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{70E0E18C-23D7-C52D-B553-FF740A98FD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="32385000"/>
+          <a:ext cx="17297400" cy="18821400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27080,7 +27136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U327"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
+    <sheetView topLeftCell="A227" workbookViewId="0">
       <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
@@ -28091,8 +28147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A29A159-1DDF-4514-8C0F-74BD61563D65}">
   <dimension ref="A3:U208"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29981,7 +30037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B55294-0735-4753-AFC3-1794F1BD4C0C}">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
@@ -30550,8 +30606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5126D9-BF4E-45A4-8244-D1997D77AADD}">
   <dimension ref="X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31457,10 +31513,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5C90F7-972D-4081-85C3-274AB22109E4}">
-  <dimension ref="A2:J85"/>
+  <dimension ref="A2:J108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31792,18 +31848,85 @@
         <v>545</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:4">
       <c r="B81" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:4">
       <c r="B83" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:4">
       <c r="B85" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B88" s="51">
+        <v>44664</v>
+      </c>
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75">
+      <c r="A91" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75">
+      <c r="A94" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
         <v>548</v>
       </c>
     </row>
